--- a/charts/p29/p29_data.xlsx
+++ b/charts/p29/p29_data.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Hp</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1729,7 +1729,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Forum</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -1738,19 +1738,19 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>333</v>
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>13758</v>
+        <v>1251</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Forum</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -1759,103 +1759,103 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>604</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>13758</v>
+        <v>1251</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Forum</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>13758</v>
+        <v>1251</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Forum</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>13758</v>
+        <v>1251</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Forum</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>13758</v>
+        <v>1251</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Forum</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>10880</v>
+        <v>582</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>13758</v>
+        <v>1251</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>79.09999999999999</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Forum</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1636</v>
+        <v>149</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>13758</v>
+        <v>1251</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>11.9</v>
@@ -1876,7 +1876,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Forum</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1885,19 +1885,19 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>56</v>
+        <v>333</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>1251</v>
+        <v>13758</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Forum</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -1906,103 +1906,103 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>47</v>
+        <v>604</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>1251</v>
+        <v>13758</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Forum</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>1251</v>
+        <v>13758</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Forum</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>1251</v>
+        <v>13758</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Forum</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>1251</v>
+        <v>13758</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Forum</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>582</v>
+        <v>10880</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>1251</v>
+        <v>13758</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>46.5</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Forum</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>149</v>
+        <v>1636</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>1251</v>
+        <v>13758</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>11.9</v>
@@ -2070,17 +2070,17 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>2596</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
@@ -2091,17 +2091,17 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>2596</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C21" s="4" t="n">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C22" s="4" t="n">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C26" s="4" t="n">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C28" s="4" t="n">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
@@ -2364,17 +2364,17 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>2803</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -2385,17 +2385,17 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>2803</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C35" s="4" t="n">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C36" s="4" t="n">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>6369</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41">
@@ -2532,17 +2532,17 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>6369</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="42">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C42" s="4" t="n">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C43" s="4" t="n">
@@ -2688,33 +2688,33 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
@@ -2727,7 +2727,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">

--- a/charts/p29/p29_data.xlsx
+++ b/charts/p29/p29_data.xlsx
@@ -7,11 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="原始数据" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="渠道SOV数据" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="品牌总体SOV" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="原始数据" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="渠道SOV数据" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="品牌总体SOV" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="Categories" comment="Sheet1!$A$2:$A$7">none</definedName>
+    <definedName name="Lenovo" comment="Sheet1!$B$2:$B$7">none</definedName>
+    <definedName name="Dell" comment="Sheet1!$C$2:$C$7">none</definedName>
+    <definedName name="Apple" comment="Sheet1!$D$2:$D$7">none</definedName>
+    <definedName name="HP" comment="Sheet1!$E$2:$E$7">none</definedName>
+    <definedName name="ASUS" comment="Sheet1!$F$2:$F$7">none</definedName>
+    <definedName name="Acer" comment="Sheet1!$G$2:$G$7">none</definedName>
+    <definedName name="Samsung" comment="Sheet1!$H$2:$H$7">none</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -464,7 +474,236 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Channel</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Forum</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Online News</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,13 +775,13 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>-0.77</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="4">
@@ -562,13 +801,13 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>7688</v>
+        <v>5230</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>-0.15</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="5">
@@ -594,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="6">
@@ -614,13 +853,13 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>545</v>
+        <v>284</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +879,13 @@
         </is>
       </c>
       <c r="D7" s="4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>4.12</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="10">
@@ -718,13 +957,13 @@
         </is>
       </c>
       <c r="D10" s="4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>-0.29</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11">
@@ -744,13 +983,13 @@
         </is>
       </c>
       <c r="D11" s="4" t="n">
-        <v>2273</v>
+        <v>1416</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>-0.05</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="12">
@@ -796,13 +1035,13 @@
         </is>
       </c>
       <c r="D13" s="4" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>-0.16</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="14">
@@ -880,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="17">
@@ -900,13 +1139,13 @@
         </is>
       </c>
       <c r="D17" s="4" t="n">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="18">
@@ -926,13 +1165,13 @@
         </is>
       </c>
       <c r="D18" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="19">
@@ -952,13 +1191,13 @@
         </is>
       </c>
       <c r="D19" s="4" t="n">
-        <v>582</v>
+        <v>227</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>0.33</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="20">
@@ -984,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
@@ -1004,13 +1243,13 @@
         </is>
       </c>
       <c r="D21" s="4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="22">
@@ -1062,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="24">
@@ -1108,13 +1347,13 @@
         </is>
       </c>
       <c r="D25" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1134,13 +1373,13 @@
         </is>
       </c>
       <c r="D26" s="4" t="n">
-        <v>2781</v>
+        <v>811</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>-0.35</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="27">
@@ -1160,13 +1399,13 @@
         </is>
       </c>
       <c r="D27" s="4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="28">
@@ -1186,13 +1425,13 @@
         </is>
       </c>
       <c r="D28" s="4" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>-0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="29">
@@ -1212,13 +1451,13 @@
         </is>
       </c>
       <c r="D29" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="30">
@@ -1244,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="31">
@@ -1270,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1316,13 +1555,13 @@
         </is>
       </c>
       <c r="D33" s="4" t="n">
-        <v>1498</v>
+        <v>453</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>157972</v>
+        <v>45047</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>1.08</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="34">
@@ -1342,10 +1581,10 @@
         </is>
       </c>
       <c r="D34" s="4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="F34" s="4" t="n">
         <v>0.25</v>
@@ -1368,13 +1607,13 @@
         </is>
       </c>
       <c r="D35" s="4" t="n">
-        <v>403</v>
+        <v>160</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>18197</v>
+        <v>11955</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>1.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36">
@@ -1452,7 +1691,7 @@
         <v>9446</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="39">
@@ -1463,7 +1702,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1472,169 +1711,169 @@
         </is>
       </c>
       <c r="D39" s="4" t="n">
-        <v>429</v>
+        <v>36</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.12</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="D40" s="4" t="n">
-        <v>100</v>
+        <v>826</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>12385</v>
+        <v>206</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="D41" s="4" t="n">
-        <v>2042</v>
+        <v>141</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>666536</v>
+        <v>16</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="D42" s="4" t="n">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>81269</v>
+        <v>45</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>0.76</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="D43" s="4" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>8141</v>
+        <v>14</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>0.37</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Lenovo</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="D44" s="4" t="n">
-        <v>92</v>
+        <v>429</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>4786</v>
+        <v>126</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>0.31</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="D45" s="4" t="n">
-        <v>3149</v>
+        <v>751</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>35875</v>
+        <v>179</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.16</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="46">
@@ -1645,22 +1884,178 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
+          <t>ASUS</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>871</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>13564</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="n">
+        <v>20574</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>462241</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>6443</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>95587</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>883</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>9471</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="n">
+        <v>890</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>6035</v>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>3150</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>35898</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
           <t>Samsung</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D46" s="4" t="n">
-        <v>600</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>70378</v>
-      </c>
-      <c r="F46" s="4" t="n">
-        <v>0.4</v>
+      <c r="D52" s="4" t="n">
+        <v>6176</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>82800</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +2066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1741,10 +2136,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1251</v>
+        <v>894</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4">
@@ -1759,13 +2154,13 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1251</v>
+        <v>894</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="5">
@@ -1783,10 +2178,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1251</v>
+        <v>894</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1804,10 +2199,10 @@
         <v>305</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1251</v>
+        <v>894</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>24.4</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="7">
@@ -1822,13 +2217,13 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1251</v>
+        <v>894</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
@@ -1843,13 +2238,13 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>582</v>
+        <v>227</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1251</v>
+        <v>894</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>46.5</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="9">
@@ -1867,10 +2262,10 @@
         <v>149</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1251</v>
+        <v>894</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>11.9</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="10">
@@ -1888,10 +2283,10 @@
         <v>333</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>13758</v>
+        <v>8674</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11">
@@ -1906,13 +2301,13 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>604</v>
+        <v>320</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>13758</v>
+        <v>8674</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="12">
@@ -1927,13 +2322,13 @@
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>13758</v>
+        <v>8674</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="13">
@@ -1948,13 +2343,13 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>13758</v>
+        <v>8674</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14">
@@ -1969,13 +2364,13 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>13758</v>
+        <v>8674</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15">
@@ -1990,13 +2385,13 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>10880</v>
+        <v>6109</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>13758</v>
+        <v>8674</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>79.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2014,10 +2409,10 @@
         <v>1636</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>13758</v>
+        <v>8674</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>11.9</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="17">
@@ -2035,10 +2430,10 @@
         <v>99</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>2596</v>
+        <v>1714</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="18">
@@ -2053,13 +2448,13 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>2596</v>
+        <v>1714</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2077,10 +2472,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>2596</v>
+        <v>1714</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2493,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>2596</v>
+        <v>1714</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
@@ -2116,10 +2511,10 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>2596</v>
+        <v>1714</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0.7</v>
@@ -2137,13 +2532,13 @@
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>2273</v>
+        <v>1416</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>2596</v>
+        <v>1714</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>87.59999999999999</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -2161,10 +2556,10 @@
         <v>134</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>2596</v>
+        <v>1714</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="24">
@@ -2182,10 +2577,10 @@
         <v>429</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>429</v>
+        <v>2311</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>100</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="25">
@@ -2200,13 +2595,13 @@
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>429</v>
+        <v>2311</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="26">
@@ -2221,13 +2616,13 @@
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>429</v>
+        <v>2311</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27">
@@ -2242,13 +2637,13 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>429</v>
+        <v>2311</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="28">
@@ -2263,13 +2658,13 @@
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>429</v>
+        <v>2311</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="29">
@@ -2284,13 +2679,13 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>429</v>
+        <v>2311</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>0</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="30">
@@ -2305,13 +2700,13 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>429</v>
+        <v>2311</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="31">
@@ -2329,10 +2724,10 @@
         <v>379</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>2803</v>
+        <v>1514</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -2347,13 +2742,13 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>403</v>
+        <v>160</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>2803</v>
+        <v>1514</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>14.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="33">
@@ -2371,10 +2766,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>2803</v>
+        <v>1514</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
@@ -2389,13 +2784,13 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>2803</v>
+        <v>1514</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="35">
@@ -2413,10 +2808,10 @@
         <v>103</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>2803</v>
+        <v>1514</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="36">
@@ -2431,13 +2826,13 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>1498</v>
+        <v>453</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>2803</v>
+        <v>1514</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>53.4</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="37">
@@ -2455,10 +2850,10 @@
         <v>360</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>2803</v>
+        <v>1514</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>12.8</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="38">
@@ -2473,13 +2868,13 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>6369</v>
+        <v>38987</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>49.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="39">
@@ -2494,13 +2889,13 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>71</v>
+        <v>883</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>6369</v>
+        <v>38987</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="40">
@@ -2515,13 +2910,13 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>92</v>
+        <v>890</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>6369</v>
+        <v>38987</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="41">
@@ -2536,13 +2931,13 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>315</v>
+        <v>6443</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>6369</v>
+        <v>38987</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>4.9</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="42">
@@ -2557,13 +2952,13 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>100</v>
+        <v>871</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>6369</v>
+        <v>38987</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="43">
@@ -2578,13 +2973,13 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>2042</v>
+        <v>20574</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>6369</v>
+        <v>38987</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>32.1</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="44">
@@ -2599,13 +2994,13 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>600</v>
+        <v>6176</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>6369</v>
+        <v>38987</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>9.4</v>
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>
@@ -2616,7 +3011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2666,10 +3061,10 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.3</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -2679,10 +3074,10 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1180</v>
+        <v>1498</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -2692,10 +3087,10 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>281</v>
+        <v>1151</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
@@ -2705,10 +3100,10 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>807</v>
+        <v>7074</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="7">
@@ -2718,10 +3113,10 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>339</v>
+        <v>1114</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="8">
@@ -2731,10 +3126,10 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17275</v>
+        <v>29605</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>63.5</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="9">
@@ -2744,10 +3139,10 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2879</v>
+        <v>9206</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.6</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/charts/p29/p29_data.xlsx
+++ b/charts/p29/p29_data.xlsx
@@ -12,16 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="渠道SOV数据" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="品牌总体SOV" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="Categories" comment="Sheet1!$A$2:$A$7">none</definedName>
-    <definedName name="Lenovo" comment="Sheet1!$B$2:$B$7">none</definedName>
-    <definedName name="Dell" comment="Sheet1!$C$2:$C$7">none</definedName>
-    <definedName name="Apple" comment="Sheet1!$D$2:$D$7">none</definedName>
-    <definedName name="HP" comment="Sheet1!$E$2:$E$7">none</definedName>
-    <definedName name="ASUS" comment="Sheet1!$F$2:$F$7">none</definedName>
-    <definedName name="Acer" comment="Sheet1!$G$2:$G$7">none</definedName>
-    <definedName name="Samsung" comment="Sheet1!$H$2:$H$7">none</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -483,11 +474,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Channel</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>Lenovo</t>

--- a/charts/p29/p29_data.xlsx
+++ b/charts/p29/p29_data.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,8 +47,15 @@
       <name val="Arial"/>
       <sz val="10"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -65,6 +72,48 @@
       <patternFill patternType="solid">
         <fgColor rgb="004F81BD"/>
         <bgColor rgb="004F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004E5AFF"/>
+        <bgColor rgb="004E5AFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BEBEBE"/>
+        <bgColor rgb="00BEBEBE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0043A7D0"/>
+        <bgColor rgb="0043A7D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E935A8"/>
+        <bgColor rgb="00E935A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000AA0A9"/>
+        <bgColor rgb="000AA0A9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00142D5C"/>
+        <bgColor rgb="00142D5C"/>
       </patternFill>
     </fill>
   </fills>
@@ -86,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -100,6 +149,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -474,37 +537,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Lenovo</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Dell</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="8" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>ASUS</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Acer</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>Samsung</t>
         </is>
@@ -516,25 +579,25 @@
           <t>Forum</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="12" t="n">
         <v>6.3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="13" t="n">
         <v>5.1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="14" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="15" t="n">
         <v>34.1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="16" t="n">
         <v>3.7</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="17" t="n">
         <v>25.4</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="18" t="n">
         <v>16.7</v>
       </c>
     </row>
@@ -544,25 +607,25 @@
           <t>Online News</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="12" t="n">
         <v>3.8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="13" t="n">
         <v>3.7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="15" t="n">
         <v>1.4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="16" t="n">
         <v>0.7</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="17" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="18" t="n">
         <v>18.9</v>
       </c>
     </row>
@@ -572,25 +635,25 @@
           <t>Blog</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="12" t="n">
         <v>5.8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="14" t="n">
         <v>0.4</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="15" t="n">
         <v>0.6</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="16" t="n">
         <v>0.7</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="17" t="n">
         <v>82.59999999999999</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="18" t="n">
         <v>7.8</v>
       </c>
     </row>
@@ -600,25 +663,25 @@
           <t>X</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="12" t="n">
         <v>18.6</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="13" t="n">
         <v>2.3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="14" t="n">
         <v>3.2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="15" t="n">
         <v>6.1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="16" t="n">
         <v>1.6</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="17" t="n">
         <v>35.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="18" t="n">
         <v>32.5</v>
       </c>
     </row>
@@ -628,25 +691,25 @@
           <t>Instagram</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="13" t="n">
         <v>10.6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="14" t="n">
         <v>0.2</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="15" t="n">
         <v>3.7</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="16" t="n">
         <v>6.8</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="17" t="n">
         <v>29.9</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="18" t="n">
         <v>23.8</v>
       </c>
     </row>
@@ -656,25 +719,25 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="12" t="n">
         <v>8.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="13" t="n">
         <v>2.3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="14" t="n">
         <v>2.3</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="15" t="n">
         <v>16.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="16" t="n">
         <v>2.2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="17" t="n">
         <v>52.8</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="18" t="n">
         <v>15.8</v>
       </c>
     </row>

--- a/charts/p29/p29_data.xlsx
+++ b/charts/p29/p29_data.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,15 +47,8 @@
       <name val="Arial"/>
       <sz val="10"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <color rgb="FFFFFFFF"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -72,48 +65,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="004F81BD"/>
         <bgColor rgb="004F81BD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004E5AFF"/>
-        <bgColor rgb="004E5AFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BEBEBE"/>
-        <bgColor rgb="00BEBEBE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0043A7D0"/>
-        <bgColor rgb="0043A7D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E935A8"/>
-        <bgColor rgb="00E935A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000AA0A9"/>
-        <bgColor rgb="000AA0A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00142D5C"/>
-        <bgColor rgb="00142D5C"/>
       </patternFill>
     </fill>
   </fills>
@@ -135,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -149,20 +100,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -535,39 +472,49 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Lenovo</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Dell</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>ASUS</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Acer</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Samsung</t>
         </is>
@@ -579,26 +526,26 @@
           <t>Forum</t>
         </is>
       </c>
-      <c r="B2" s="12" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C2" s="13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D2" s="14" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E2" s="15" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="F2" s="16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G2" s="17" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="H2" s="18" t="n">
-        <v>16.7</v>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -607,26 +554,26 @@
           <t>Online News</t>
         </is>
       </c>
-      <c r="B3" s="12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C3" s="13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D3" s="14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F3" s="16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G3" s="17" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="H3" s="18" t="n">
-        <v>18.9</v>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>70</v>
+      </c>
+      <c r="H3" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -635,26 +582,26 @@
           <t>Blog</t>
         </is>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="C4" s="13" t="n">
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F4" s="16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G4" s="17" t="n">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="H4" s="18" t="n">
-        <v>7.8</v>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -663,26 +610,26 @@
           <t>X</t>
         </is>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="C5" s="13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D5" s="14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F5" s="16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G5" s="17" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="H5" s="18" t="n">
-        <v>32.5</v>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -691,26 +638,26 @@
           <t>Instagram</t>
         </is>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" t="n">
         <v>25</v>
       </c>
-      <c r="C6" s="13" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="D6" s="14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F6" s="16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G6" s="17" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="H6" s="18" t="n">
-        <v>23.8</v>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -719,26 +666,26 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="B7" s="12" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C7" s="13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D7" s="14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G7" s="17" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="H7" s="18" t="n">
-        <v>15.8</v>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>53</v>
+      </c>
+      <c r="H7" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1739,7 @@
         <v>206</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41">
@@ -3113,7 +3060,7 @@
         <v>4446</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3126,7 +3073,7 @@
         <v>1498</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3139,7 +3086,7 @@
         <v>1151</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3152,7 +3099,7 @@
         <v>7074</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -3165,7 +3112,7 @@
         <v>1114</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3178,7 +3125,7 @@
         <v>29605</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>54.7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">

--- a/charts/p29/p29_data.xlsx
+++ b/charts/p29/p29_data.xlsx
@@ -527,25 +527,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -555,25 +555,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -583,25 +583,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -611,25 +611,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -639,25 +639,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>-0.66</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="4">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>5230</v>
+        <v>746</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>-0.19</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
@@ -849,13 +849,13 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>284</v>
+        <v>545</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.45</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="D7" s="4" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="8">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1163</v>
+        <v>615</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>4.08</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="10">
@@ -953,13 +953,13 @@
         </is>
       </c>
       <c r="D10" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="D11" s="4" t="n">
-        <v>1416</v>
+        <v>158</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>-0.19</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="12">
@@ -1031,13 +1031,13 @@
         </is>
       </c>
       <c r="D13" s="4" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="14">
@@ -1109,39 +1109,39 @@
         </is>
       </c>
       <c r="D16" s="4" t="n">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>2.96</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Forum</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>comment</t>
+          <t>forum</t>
         </is>
       </c>
       <c r="D17" s="4" t="n">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>-0.49</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="18">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1161,13 +1161,13 @@
         </is>
       </c>
       <c r="D18" s="4" t="n">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>-0.58</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="19">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="D19" s="4" t="n">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="E19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>0.85</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="20">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1213,13 +1213,13 @@
         </is>
       </c>
       <c r="D20" s="4" t="n">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>0.2</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="D21" s="4" t="n">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>0.61</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="22">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Lenovo</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1265,13 +1265,13 @@
         </is>
       </c>
       <c r="D22" s="4" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>-0.13</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="23">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1291,39 +1291,39 @@
         </is>
       </c>
       <c r="D23" s="4" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Forum</t>
+          <t>Online News</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>forum</t>
+          <t>frontpage</t>
         </is>
       </c>
       <c r="D24" s="4" t="n">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="D25" s="4" t="n">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="26">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="D26" s="4" t="n">
-        <v>811</v>
+        <v>40</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>-0.28</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1395,13 +1395,13 @@
         </is>
       </c>
       <c r="D27" s="4" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>0.62</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="28">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="D28" s="4" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>0.11</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="29">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Lenovo</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1447,13 +1447,13 @@
         </is>
       </c>
       <c r="D29" s="4" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="30">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1473,39 +1473,39 @@
         </is>
       </c>
       <c r="D30" s="4" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>0.62</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Online News</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>frontpage</t>
+          <t>instagram</t>
         </is>
       </c>
       <c r="D31" s="4" t="n">
-        <v>473</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>0</v>
+        <v>2566</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="32">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="D32" s="4" t="n">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>2580</v>
+        <v>9181</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="33">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="D33" s="4" t="n">
-        <v>453</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>45047</v>
+        <v>546</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>0.99</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="34">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1577,13 +1577,13 @@
         </is>
       </c>
       <c r="D34" s="4" t="n">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>536</v>
+        <v>18197</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>0.25</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="35">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1603,13 +1603,13 @@
         </is>
       </c>
       <c r="D35" s="4" t="n">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>11955</v>
+        <v>139</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Lenovo</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="D36" s="4" t="n">
-        <v>3</v>
+        <v>379</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>139</v>
+        <v>24794</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="37">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1655,39 +1655,39 @@
         </is>
       </c>
       <c r="D37" s="4" t="n">
-        <v>379</v>
+        <v>9</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>24794</v>
+        <v>2735</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>0.16</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>instagram</t>
+          <t>twitter</t>
         </is>
       </c>
       <c r="D38" s="4" t="n">
-        <v>360</v>
+        <v>37</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>9446</v>
+        <v>6</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.25</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="39">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="D39" s="4" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="40">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="D40" s="4" t="n">
-        <v>826</v>
+        <v>142</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>-0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="41">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="D41" s="4" t="n">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F41" s="4" t="n">
         <v>0.17</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1785,13 +1785,13 @@
         </is>
       </c>
       <c r="D42" s="4" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>0.17</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="43">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Lenovo</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="D43" s="4" t="n">
-        <v>74</v>
+        <v>429</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>-0.18</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="44">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1837,39 +1837,39 @@
         </is>
       </c>
       <c r="D44" s="4" t="n">
-        <v>429</v>
+        <v>66</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.12</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>ASUS</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>twitter</t>
+          <t>video</t>
         </is>
       </c>
       <c r="D45" s="4" t="n">
-        <v>751</v>
+        <v>205</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>179</v>
+        <v>12424</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>0.19</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="46">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ASUS</t>
+          <t>Acer</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1889,13 +1889,13 @@
         </is>
       </c>
       <c r="D46" s="4" t="n">
-        <v>871</v>
+        <v>443</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>13564</v>
+        <v>29862</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>0.64</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="47">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Acer</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -1915,13 +1915,13 @@
         </is>
       </c>
       <c r="D47" s="4" t="n">
-        <v>20574</v>
+        <v>6445</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>462241</v>
+        <v>96421</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>-0.21</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="48">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1941,13 +1941,13 @@
         </is>
       </c>
       <c r="D48" s="4" t="n">
-        <v>6443</v>
+        <v>937</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>95587</v>
+        <v>10043</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="49">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="D49" s="4" t="n">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>9471</v>
+        <v>6383</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="50">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Lenovo</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="D50" s="4" t="n">
-        <v>890</v>
+        <v>3153</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>6035</v>
+        <v>36391</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="51">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2019,39 +2019,13 @@
         </is>
       </c>
       <c r="D51" s="4" t="n">
-        <v>3150</v>
+        <v>524</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>35898</v>
+        <v>52169</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>Samsung</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>video</t>
-        </is>
-      </c>
-      <c r="D52" s="4" t="n">
-        <v>6176</v>
-      </c>
-      <c r="E52" s="4" t="n">
-        <v>82800</v>
-      </c>
-      <c r="F52" s="4" t="n">
-        <v>1.75</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -2132,10 +2106,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>894</v>
+        <v>796</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2150,13 +2124,13 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>894</v>
+        <v>796</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="5">
@@ -2174,10 +2148,10 @@
         <v>78</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>894</v>
+        <v>796</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -2192,13 +2166,13 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>894</v>
+        <v>796</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.1</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="7">
@@ -2216,10 +2190,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>894</v>
+        <v>796</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -2234,13 +2208,13 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>894</v>
+        <v>796</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>25.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -2255,13 +2229,13 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>894</v>
+        <v>796</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>16.7</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="10">
@@ -2279,10 +2253,10 @@
         <v>333</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>8674</v>
+        <v>2717</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>3.8</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="11">
@@ -2297,13 +2271,13 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>320</v>
+        <v>604</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>8674</v>
+        <v>2717</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>3.7</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="12">
@@ -2318,13 +2292,13 @@
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>8674</v>
+        <v>2717</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="13">
@@ -2339,13 +2313,13 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>8674</v>
+        <v>2717</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="14">
@@ -2360,13 +2334,13 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>8674</v>
+        <v>2717</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2381,13 +2355,13 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>6109</v>
+        <v>859</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>8674</v>
+        <v>2717</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>70.40000000000001</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="16">
@@ -2402,13 +2376,13 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>1636</v>
+        <v>673</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>8674</v>
+        <v>2717</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>18.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="17">
@@ -2426,10 +2400,10 @@
         <v>99</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>1714</v>
+        <v>372</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>5.8</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="18">
@@ -2444,13 +2418,13 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>1714</v>
+        <v>372</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>2</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="19">
@@ -2468,10 +2442,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>1714</v>
+        <v>372</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="20">
@@ -2489,10 +2463,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>1714</v>
+        <v>372</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2507,13 +2481,13 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>1714</v>
+        <v>372</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
@@ -2528,13 +2502,13 @@
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1416</v>
+        <v>158</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>1714</v>
+        <v>372</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>82.59999999999999</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="23">
@@ -2549,13 +2523,13 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>1714</v>
+        <v>372</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -2573,10 +2547,10 @@
         <v>429</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>2311</v>
+        <v>917</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>18.6</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="25">
@@ -2591,13 +2565,13 @@
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>2311</v>
+        <v>917</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>2.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="26">
@@ -2615,10 +2589,10 @@
         <v>74</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>2311</v>
+        <v>917</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>3.2</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="27">
@@ -2633,13 +2607,13 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>2311</v>
+        <v>917</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>6.1</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="28">
@@ -2654,13 +2628,13 @@
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>2311</v>
+        <v>917</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2675,13 +2649,13 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>826</v>
+        <v>97</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>2311</v>
+        <v>917</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>35.7</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="30">
@@ -2696,13 +2670,13 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>751</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>2311</v>
+        <v>917</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>32.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="31">
@@ -2720,10 +2694,10 @@
         <v>379</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>1514</v>
+        <v>895</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>25</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="32">
@@ -2738,13 +2712,13 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>160</v>
+        <v>403</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>1514</v>
+        <v>895</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>10.6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -2762,10 +2736,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>1514</v>
+        <v>895</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34">
@@ -2780,13 +2754,13 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>1514</v>
+        <v>895</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="35">
@@ -2801,13 +2775,13 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>1514</v>
+        <v>895</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>6.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="36">
@@ -2822,13 +2796,13 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>453</v>
+        <v>29</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>1514</v>
+        <v>895</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>29.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="37">
@@ -2843,13 +2817,13 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>360</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>1514</v>
+        <v>895</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>23.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2864,13 +2838,13 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>3150</v>
+        <v>3153</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>38987</v>
+        <v>12610</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>8.1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -2885,13 +2859,13 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>883</v>
+        <v>937</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>38987</v>
+        <v>12610</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="40">
@@ -2906,13 +2880,13 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>38987</v>
+        <v>12610</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="41">
@@ -2927,13 +2901,13 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>6443</v>
+        <v>6445</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>38987</v>
+        <v>12610</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>16.5</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="42">
@@ -2948,13 +2922,13 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>871</v>
+        <v>205</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>38987</v>
+        <v>12610</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="43">
@@ -2969,13 +2943,13 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>20574</v>
+        <v>443</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>38987</v>
+        <v>12610</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>52.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="44">
@@ -2990,13 +2964,13 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>6176</v>
+        <v>524</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>38987</v>
+        <v>12610</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>15.8</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -3057,10 +3031,10 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4446</v>
+        <v>4449</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -3070,10 +3044,10 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1498</v>
+        <v>2118</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -3083,10 +3057,10 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3096,10 +3070,10 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7074</v>
+        <v>7080</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -3109,7 +3083,7 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1114</v>
+        <v>319</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>2</v>
@@ -3122,10 +3096,10 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>29605</v>
+        <v>1777</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3135,10 +3109,10 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>9206</v>
+        <v>1398</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
